--- a/ai_workshop/Data/Training Dataset/AI CUP_codebook.xlsx
+++ b/ai_workshop/Data/Training Dataset/AI CUP_codebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="code book"/>
@@ -1063,7 +1063,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1348,10 +1348,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1678,7 +1678,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -29996,7 +29996,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30834,7 +30834,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
       <c r="A26" s="21" t="s">
         <v>21</v>
       </c>
@@ -30870,7 +30870,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
       <c r="A27" s="21" t="s">
         <v>22</v>
       </c>
@@ -30906,7 +30906,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="22.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -30934,7 +30934,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="22.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -30962,7 +30962,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="22.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -30990,7 +30990,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="22.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -31018,7 +31018,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="22.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -31046,7 +31046,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="22.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -31074,7 +31074,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="22.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -31102,7 +31102,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="22.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -31130,7 +31130,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="22.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -31158,7 +31158,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="22.5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -31186,7 +31186,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="22.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -31214,7 +31214,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="22.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -31242,7 +31242,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="22.5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31270,7 +31270,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="22.5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -31298,7 +31298,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="22.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -31326,7 +31326,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="22.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -31354,7 +31354,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="22.5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -31382,7 +31382,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="22.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -31410,7 +31410,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="22.5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -31438,7 +31438,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="22.5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -31466,7 +31466,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="22.5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -31494,7 +31494,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="22.5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -31522,7 +31522,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="22.5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -31550,7 +31550,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="22.5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -31578,7 +31578,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="22.5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -31606,7 +31606,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="22.5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -31634,7 +31634,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="22.5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -31662,7 +31662,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="22.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -31690,7 +31690,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="22.5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -31718,7 +31718,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="22.5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -31746,7 +31746,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="22.5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
